--- a/biology/Médecine/Philippe_Pignarre/Philippe_Pignarre.xlsx
+++ b/biology/Médecine/Philippe_Pignarre/Philippe_Pignarre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Pignarre (né en 1952) est un essayiste et éditeur français.
 </t>
@@ -511,7 +523,9 @@
           <t>Parcours dans l'édition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ayant suivi une formation en histoire, il devient fortuitement éditeur. Il est à l'origine d'une édition des essais en sciences humaines, psychiatrie et épistémologie. Il a été directeur de la communication des laboratoires Synthélabo au sein desquels il créa l'Institut Synthelabo pour le progrès et la connaissance (1990); cette initiative originale de mécénat éditorial rencontra un public grâce à la liberté de ton de la collection « Les Empêcheurs de penser en rond ». Lorsqu'en 1999 Synthélabo fut racheté par Sanofi pour devenir le groupe Sanofi-Synthélabo, Philippe Pignarre fut licencié.
 Étant parvenu à récupérer un fonds qu'il avait constitué avec notamment comme collaborateurs Isabelle Stengers, François Dagognet ou Bruno Latour, il fonda sa propre maison d'édition rattachée aux éditions du Seuil. À la suite de désaccords, il quitte Le Seuil en 2008. Toujours sous sa direction, Les Empêcheurs de penser en rond sont désormais rattachée aux éditions La Découverte.
@@ -554,9 +568,11 @@
           <t>Politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a milité à la Ligue communiste révolutionnaire pendant sept ans, dans les années 1970[1]. À cette époque, il était contributeur dans le journal Rouge sous le pseudonyme de Philippe Andréa. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a milité à la Ligue communiste révolutionnaire pendant sept ans, dans les années 1970. À cette époque, il était contributeur dans le journal Rouge sous le pseudonyme de Philippe Andréa. 
 Il est proche d'ATTAC, du NPA et des milieux altermondialistes. Il est un des fondateurs et animateurs de la Société Louise-Michel avec Daniel Bensaïd, Philippe Corcuff, Michael Löwy et Luc Boltanski.
 </t>
         </is>
@@ -586,7 +602,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ces drôles de médicaments, Le Plessis Robinson, Les Empêcheurs de penser en rond, 1990
 Les deux médecines: Médicaments, psychotropes et suggestion thérapeutique, Paris, La Découverte, 1995
@@ -626,7 +644,9 @@
           <t>Articles sur Pignarre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nathalie Levisalles, « De la fuite dans les idées », dans  Libération, 11 juillet 2002.
 Robert Maggiori, Jean-Baptiste Marongiu, « Les “Empêcheurs de penser en rond” empêchés. À la suite d'un article du Canard enchaîné, l'existence de cette collection est menacée (Philippe Pignarre, Ian Hacking) », dans Libération, 26 janvier 2000.
